--- a/obsolete/obsolete-filters-DESKTOP-TEQ7SDC.xlsx
+++ b/obsolete/obsolete-filters-DESKTOP-TEQ7SDC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\obsolete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{F845081E-D205-4572-B9C9-AE958EF07F82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{54DA4209-71E1-45DE-9074-F1E0D2E49355}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{F845081E-D205-4572-B9C9-AE958EF07F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{197532ED-E721-449B-88D8-F2B67C070EA7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4980" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5003" uniqueCount="1119">
   <si>
     <t>Filter</t>
   </si>
@@ -3320,6 +3320,75 @@
   </si>
   <si>
     <t>trybunaczestochowska.pl##div[class^="trybu-sidebar"]</t>
+  </si>
+  <si>
+    <t>tradersarea.pl##img[alt="ads"]</t>
+  </si>
+  <si>
+    <t>tradersarea.pl##.td-a-rec</t>
+  </si>
+  <si>
+    <t>||trawka.org^*^dutchpassion2.</t>
+  </si>
+  <si>
+    <t>||trawka.org^*^300-x-150-</t>
+  </si>
+  <si>
+    <t>||seedbay.pl^*^thc-nasiona-</t>
+  </si>
+  <si>
+    <t>||trawka.org^*^vapuj-pl-</t>
+  </si>
+  <si>
+    <t>||trawka.org^*^growbox2.</t>
+  </si>
+  <si>
+    <t>||trawka.org^*^grasspower.</t>
+  </si>
+  <si>
+    <t>||trawka.org^*300X150</t>
+  </si>
+  <si>
+    <t>trawka.org##div[data-role="sidebarAd"]</t>
+  </si>
+  <si>
+    <t>terazgabin.pl##div[aria-live="polite"]</t>
+  </si>
+  <si>
+    <t>||tarnowiak.pl^*^grafika/MM_</t>
+  </si>
+  <si>
+    <t>||tarnowiak.pl^*^super_reklama^</t>
+  </si>
+  <si>
+    <t>||tarnowiak.pl^*_Wizytowka^</t>
+  </si>
+  <si>
+    <t>||tarnobrzeskie.eu^*^tani-druk-</t>
+  </si>
+  <si>
+    <t>||tarnobrzeskie.eu^*^grupawoda.</t>
+  </si>
+  <si>
+    <t>||tarnobrzeskie.eu^*^balony-z-helem-</t>
+  </si>
+  <si>
+    <t>||tarnobrzeskie.eu^*^BANER-</t>
+  </si>
+  <si>
+    <t>szubin24.pl##.ban</t>
+  </si>
+  <si>
+    <t>||cdn.gallery^*^files^$image,domain=szczecinek.com</t>
+  </si>
+  <si>
+    <t>||swietokrzyskie24.eu^*^oklejaniebanerek.</t>
+  </si>
+  <si>
+    <t>swiatkoni.pl##.advset</t>
+  </si>
+  <si>
+    <t>swiatkarinki.pl##.baner-container</t>
   </si>
 </sst>
 </file>
@@ -4150,9 +4219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC777"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B628" sqref="B628"/>
+      <selection pane="topRight" activeCell="C559" sqref="C559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51986,7 +52055,10 @@
         <v>846</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D558" s="26" t="s">
+        <v>1118</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>2</v>
@@ -52013,7 +52085,10 @@
         <v>847</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>2</v>
@@ -52067,7 +52142,10 @@
         <v>849</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D561" s="26" t="s">
+        <v>1116</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>2</v>
@@ -52148,7 +52226,10 @@
         <v>852</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>287</v>
+        <v>1071</v>
+      </c>
+      <c r="D564" s="26" t="s">
+        <v>1115</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>2</v>
@@ -52202,7 +52283,10 @@
         <v>854</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D566" s="26" t="s">
+        <v>1114</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>2</v>
@@ -52499,7 +52583,10 @@
         <v>865</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>1110</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>2</v>
@@ -52526,7 +52613,10 @@
         <v>866</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>1111</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>2</v>
@@ -52553,7 +52643,10 @@
         <v>867</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>2</v>
@@ -52580,7 +52673,10 @@
         <v>868</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>1113</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>2</v>
@@ -52609,6 +52705,7 @@
       <c r="C581" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="D581" s="3"/>
       <c r="E581" s="3" t="s">
         <v>2</v>
       </c>
@@ -52661,7 +52758,10 @@
         <v>871</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>1107</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>2</v>
@@ -52688,7 +52788,10 @@
         <v>872</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>1108</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>2</v>
@@ -52715,7 +52818,10 @@
         <v>873</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>1109</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>2</v>
@@ -53093,9 +53199,11 @@
         <v>887</v>
       </c>
       <c r="C599" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="D599" s="24"/>
+        <v>376</v>
+      </c>
+      <c r="D599" s="26" t="s">
+        <v>1106</v>
+      </c>
       <c r="E599" s="21" t="s">
         <v>2</v>
       </c>
@@ -53688,7 +53796,10 @@
         <v>909</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>1096</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>2</v>
@@ -53715,7 +53826,10 @@
         <v>910</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>2</v>
@@ -53796,7 +53910,10 @@
         <v>913</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>1104</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>2</v>
@@ -53823,7 +53940,10 @@
         <v>914</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D626" s="26" t="s">
+        <v>1098</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>2</v>
@@ -53850,7 +53970,10 @@
         <v>915</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D627" s="26" t="s">
+        <v>1099</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>2</v>
@@ -53958,7 +54081,10 @@
         <v>919</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D631" s="26" t="s">
+        <v>1102</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>2</v>
@@ -53985,7 +54111,10 @@
         <v>920</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D632" s="26" t="s">
+        <v>1101</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>2</v>
@@ -54012,7 +54141,10 @@
         <v>921</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D633" s="26" t="s">
+        <v>1103</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>2</v>
@@ -54066,7 +54198,10 @@
         <v>923</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D635" s="26" t="s">
+        <v>1100</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>2</v>
@@ -54147,7 +54282,10 @@
         <v>926</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>288</v>
+        <v>376</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>1105</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>2</v>
